--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fcer2a-Cr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fcer2a-Cr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,19 +85,19 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Fcer2a</t>
+  </si>
+  <si>
+    <t>Cr2</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Fcer2a</t>
-  </si>
-  <si>
-    <t>Cr2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.06135066666666666</v>
+        <v>0.1869623333333333</v>
       </c>
       <c r="H2">
-        <v>0.184052</v>
+        <v>0.5608869999999999</v>
       </c>
       <c r="I2">
-        <v>0.03467334969930309</v>
+        <v>0.08130833344930441</v>
       </c>
       <c r="J2">
-        <v>0.03467334969930309</v>
+        <v>0.0813083334493044</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.7342500000000002</v>
+        <v>0.5651780000000001</v>
       </c>
       <c r="N2">
-        <v>2.20275</v>
+        <v>1.695534</v>
       </c>
       <c r="O2">
-        <v>0.3688894597676453</v>
+        <v>0.2478702662370043</v>
       </c>
       <c r="P2">
-        <v>0.3688894597676453</v>
+        <v>0.2478702662370043</v>
       </c>
       <c r="Q2">
-        <v>0.04504672700000001</v>
+        <v>0.1056669976286667</v>
       </c>
       <c r="R2">
-        <v>0.4054205430000001</v>
+        <v>0.9510029786579999</v>
       </c>
       <c r="S2">
-        <v>0.01279063323891056</v>
+        <v>0.0201539182593662</v>
       </c>
       <c r="T2">
-        <v>0.01279063323891056</v>
+        <v>0.0201539182593662</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.06135066666666666</v>
+        <v>0.1869623333333333</v>
       </c>
       <c r="H3">
-        <v>0.184052</v>
+        <v>0.5608869999999999</v>
       </c>
       <c r="I3">
-        <v>0.03467334969930309</v>
+        <v>0.08130833344930441</v>
       </c>
       <c r="J3">
-        <v>0.03467334969930309</v>
+        <v>0.0813083334493044</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,25 +626,25 @@
         <v>0.203534</v>
       </c>
       <c r="N3">
-        <v>0.6106020000000001</v>
+        <v>0.610602</v>
       </c>
       <c r="O3">
-        <v>0.1022561080072835</v>
+        <v>0.08926396067837462</v>
       </c>
       <c r="P3">
-        <v>0.1022561080072835</v>
+        <v>0.08926396067837464</v>
       </c>
       <c r="Q3">
-        <v>0.01248694658933333</v>
+        <v>0.03805319155266666</v>
       </c>
       <c r="R3">
-        <v>0.112382519304</v>
+        <v>0.3424787239739999</v>
       </c>
       <c r="S3">
-        <v>0.003545561791826247</v>
+        <v>0.007257903879842881</v>
       </c>
       <c r="T3">
-        <v>0.003545561791826248</v>
+        <v>0.00725790387984288</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,16 +667,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.06135066666666666</v>
+        <v>0.1869623333333333</v>
       </c>
       <c r="H4">
-        <v>0.184052</v>
+        <v>0.5608869999999999</v>
       </c>
       <c r="I4">
-        <v>0.03467334969930309</v>
+        <v>0.08130833344930441</v>
       </c>
       <c r="J4">
-        <v>0.03467334969930309</v>
+        <v>0.0813083334493044</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.1715383333333333</v>
+        <v>0.04392366666666667</v>
       </c>
       <c r="N4">
-        <v>0.5146149999999999</v>
+        <v>0.131771</v>
       </c>
       <c r="O4">
-        <v>0.08618138660235011</v>
+        <v>0.01926361420786388</v>
       </c>
       <c r="P4">
-        <v>0.08618138660235013</v>
+        <v>0.01926361420786388</v>
       </c>
       <c r="Q4">
-        <v>0.01052399110888889</v>
+        <v>0.008212071208555554</v>
       </c>
       <c r="R4">
-        <v>0.09471591997999998</v>
+        <v>0.07390864087699998</v>
       </c>
       <c r="S4">
-        <v>0.002988197355234119</v>
+        <v>0.001566292367451755</v>
       </c>
       <c r="T4">
-        <v>0.00298819735523412</v>
+        <v>0.001566292367451755</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,60 +729,60 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.06135066666666666</v>
+        <v>0.1869623333333333</v>
       </c>
       <c r="H5">
-        <v>0.184052</v>
+        <v>0.5608869999999999</v>
       </c>
       <c r="I5">
-        <v>0.03467334969930309</v>
+        <v>0.08130833344930441</v>
       </c>
       <c r="J5">
-        <v>0.03467334969930309</v>
+        <v>0.0813083334493044</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.8811113333333335</v>
+        <v>1.385719</v>
       </c>
       <c r="N5">
-        <v>2.643334</v>
+        <v>4.157157</v>
       </c>
       <c r="O5">
-        <v>0.442673045622721</v>
+        <v>0.6077351515092152</v>
       </c>
       <c r="P5">
-        <v>0.4426730456227211</v>
+        <v>0.6077351515092153</v>
       </c>
       <c r="Q5">
-        <v>0.05405676770755556</v>
+        <v>0.2590772575843333</v>
       </c>
       <c r="R5">
-        <v>0.486510909368</v>
+        <v>2.331695318258999</v>
       </c>
       <c r="S5">
-        <v>0.01534895731333216</v>
+        <v>0.0494139323477748</v>
       </c>
       <c r="T5">
-        <v>0.01534895731333216</v>
+        <v>0.0494139323477748</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,46 +791,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.2523103333333334</v>
+        <v>0.1869623333333333</v>
       </c>
       <c r="H6">
-        <v>0.756931</v>
+        <v>0.5608869999999999</v>
       </c>
       <c r="I6">
-        <v>0.1425973815076347</v>
+        <v>0.08130833344930441</v>
       </c>
       <c r="J6">
-        <v>0.1425973815076347</v>
+        <v>0.0813083334493044</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.7342500000000002</v>
+        <v>0.08178166666666667</v>
       </c>
       <c r="N6">
-        <v>2.20275</v>
+        <v>0.245345</v>
       </c>
       <c r="O6">
-        <v>0.3688894597676453</v>
+        <v>0.03586700736754191</v>
       </c>
       <c r="P6">
-        <v>0.3688894597676453</v>
+        <v>0.03586700736754191</v>
       </c>
       <c r="Q6">
-        <v>0.1852588622500001</v>
+        <v>0.01529009122388889</v>
       </c>
       <c r="R6">
-        <v>1.66732976025</v>
+        <v>0.137610821015</v>
       </c>
       <c r="S6">
-        <v>0.05260267102863219</v>
+        <v>0.002916286594868755</v>
       </c>
       <c r="T6">
-        <v>0.05260267102863219</v>
+        <v>0.002916286594868756</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -859,40 +859,40 @@
         <v>0.756931</v>
       </c>
       <c r="I7">
-        <v>0.1425973815076347</v>
+        <v>0.1097276245413344</v>
       </c>
       <c r="J7">
-        <v>0.1425973815076347</v>
+        <v>0.1097276245413344</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.203534</v>
+        <v>0.5651780000000001</v>
       </c>
       <c r="N7">
-        <v>0.6106020000000001</v>
+        <v>1.695534</v>
       </c>
       <c r="O7">
-        <v>0.1022561080072835</v>
+        <v>0.2478702662370043</v>
       </c>
       <c r="P7">
-        <v>0.1022561080072835</v>
+        <v>0.2478702662370043</v>
       </c>
       <c r="Q7">
-        <v>0.05135373138466668</v>
+        <v>0.1426002495726667</v>
       </c>
       <c r="R7">
-        <v>0.4621835824620001</v>
+        <v>1.283402246154</v>
       </c>
       <c r="S7">
-        <v>0.01458145324500051</v>
+        <v>0.02719821550861461</v>
       </c>
       <c r="T7">
-        <v>0.01458145324500051</v>
+        <v>0.0271982155086146</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -921,10 +921,10 @@
         <v>0.756931</v>
       </c>
       <c r="I8">
-        <v>0.1425973815076347</v>
+        <v>0.1097276245413344</v>
       </c>
       <c r="J8">
-        <v>0.1425973815076347</v>
+        <v>0.1097276245413344</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -933,28 +933,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.1715383333333333</v>
+        <v>0.203534</v>
       </c>
       <c r="N8">
-        <v>0.5146149999999999</v>
+        <v>0.610602</v>
       </c>
       <c r="O8">
-        <v>0.08618138660235011</v>
+        <v>0.08926396067837462</v>
       </c>
       <c r="P8">
-        <v>0.08618138660235013</v>
+        <v>0.08926396067837464</v>
       </c>
       <c r="Q8">
-        <v>0.04328089406277778</v>
+        <v>0.05135373138466667</v>
       </c>
       <c r="R8">
-        <v>0.389528046565</v>
+        <v>0.462183582462</v>
       </c>
       <c r="S8">
-        <v>0.01228924006419228</v>
+        <v>0.009794722362389131</v>
       </c>
       <c r="T8">
-        <v>0.01228924006419228</v>
+        <v>0.009794722362389131</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -983,54 +983,54 @@
         <v>0.756931</v>
       </c>
       <c r="I9">
-        <v>0.1425973815076347</v>
+        <v>0.1097276245413344</v>
       </c>
       <c r="J9">
-        <v>0.1425973815076347</v>
+        <v>0.1097276245413344</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.8811113333333335</v>
+        <v>0.04392366666666667</v>
       </c>
       <c r="N9">
-        <v>2.643334</v>
+        <v>0.131771</v>
       </c>
       <c r="O9">
-        <v>0.442673045622721</v>
+        <v>0.01926361420786388</v>
       </c>
       <c r="P9">
-        <v>0.4426730456227211</v>
+        <v>0.01926361420786388</v>
       </c>
       <c r="Q9">
-        <v>0.2223134942171112</v>
+        <v>0.01108239497788889</v>
       </c>
       <c r="R9">
-        <v>2.000821447954</v>
+        <v>0.099741554801</v>
       </c>
       <c r="S9">
-        <v>0.06312401716980974</v>
+        <v>0.002113750627109604</v>
       </c>
       <c r="T9">
-        <v>0.06312401716980975</v>
+        <v>0.002113750627109604</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1039,16 +1039,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.09059099999999999</v>
+        <v>0.2523103333333334</v>
       </c>
       <c r="H10">
-        <v>0.271773</v>
+        <v>0.756931</v>
       </c>
       <c r="I10">
-        <v>0.05119901043090375</v>
+        <v>0.1097276245413344</v>
       </c>
       <c r="J10">
-        <v>0.05119901043090376</v>
+        <v>0.1097276245413344</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,42 +1057,42 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.7342500000000002</v>
+        <v>1.385719</v>
       </c>
       <c r="N10">
-        <v>2.20275</v>
+        <v>4.157157</v>
       </c>
       <c r="O10">
-        <v>0.3688894597676453</v>
+        <v>0.6077351515092152</v>
       </c>
       <c r="P10">
-        <v>0.3688894597676453</v>
+        <v>0.6077351515092153</v>
       </c>
       <c r="Q10">
-        <v>0.06651644175000002</v>
+        <v>0.3496312227963334</v>
       </c>
       <c r="R10">
-        <v>0.5986479757500001</v>
+        <v>3.146681005167</v>
       </c>
       <c r="S10">
-        <v>0.01888677529849412</v>
+        <v>0.06668533452537416</v>
       </c>
       <c r="T10">
-        <v>0.01888677529849413</v>
+        <v>0.06668533452537416</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1101,16 +1101,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.09059099999999999</v>
+        <v>0.2523103333333334</v>
       </c>
       <c r="H11">
-        <v>0.271773</v>
+        <v>0.756931</v>
       </c>
       <c r="I11">
-        <v>0.05119901043090375</v>
+        <v>0.1097276245413344</v>
       </c>
       <c r="J11">
-        <v>0.05119901043090376</v>
+        <v>0.1097276245413344</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,28 +1119,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.203534</v>
+        <v>0.08178166666666667</v>
       </c>
       <c r="N11">
-        <v>0.6106020000000001</v>
+        <v>0.245345</v>
       </c>
       <c r="O11">
-        <v>0.1022561080072835</v>
+        <v>0.03586700736754191</v>
       </c>
       <c r="P11">
-        <v>0.1022561080072835</v>
+        <v>0.03586700736754191</v>
       </c>
       <c r="Q11">
-        <v>0.018438348594</v>
+        <v>0.02063435957722223</v>
       </c>
       <c r="R11">
-        <v>0.165945137346</v>
+        <v>0.185709236195</v>
       </c>
       <c r="S11">
-        <v>0.005235411540488529</v>
+        <v>0.003935601517846914</v>
       </c>
       <c r="T11">
-        <v>0.00523541154048853</v>
+        <v>0.003935601517846914</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.09059099999999999</v>
+        <v>0.1676763333333333</v>
       </c>
       <c r="H12">
-        <v>0.271773</v>
+        <v>0.5030289999999999</v>
       </c>
       <c r="I12">
-        <v>0.05119901043090375</v>
+        <v>0.07292101558187326</v>
       </c>
       <c r="J12">
-        <v>0.05119901043090376</v>
+        <v>0.07292101558187325</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1715383333333333</v>
+        <v>0.5651780000000001</v>
       </c>
       <c r="N12">
-        <v>0.5146149999999999</v>
+        <v>1.695534</v>
       </c>
       <c r="O12">
-        <v>0.08618138660235011</v>
+        <v>0.2478702662370043</v>
       </c>
       <c r="P12">
-        <v>0.08618138660235013</v>
+        <v>0.2478702662370043</v>
       </c>
       <c r="Q12">
-        <v>0.015539829155</v>
+        <v>0.09476697472066667</v>
       </c>
       <c r="R12">
-        <v>0.139858462395</v>
+        <v>0.852902772486</v>
       </c>
       <c r="S12">
-        <v>0.004412401711603472</v>
+        <v>0.01807495154655166</v>
       </c>
       <c r="T12">
-        <v>0.004412401711603474</v>
+        <v>0.01807495154655166</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,217 +1210,217 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.09059099999999999</v>
+        <v>0.1676763333333333</v>
       </c>
       <c r="H13">
-        <v>0.271773</v>
+        <v>0.5030289999999999</v>
       </c>
       <c r="I13">
-        <v>0.05119901043090375</v>
+        <v>0.07292101558187326</v>
       </c>
       <c r="J13">
-        <v>0.05119901043090376</v>
+        <v>0.07292101558187325</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.8811113333333335</v>
+        <v>0.203534</v>
       </c>
       <c r="N13">
-        <v>2.643334</v>
+        <v>0.610602</v>
       </c>
       <c r="O13">
-        <v>0.442673045622721</v>
+        <v>0.08926396067837462</v>
       </c>
       <c r="P13">
-        <v>0.4426730456227211</v>
+        <v>0.08926396067837464</v>
       </c>
       <c r="Q13">
-        <v>0.07982075679800001</v>
+        <v>0.03412783482866666</v>
       </c>
       <c r="R13">
-        <v>0.7183868111820001</v>
+        <v>0.307150513458</v>
       </c>
       <c r="S13">
-        <v>0.02266442188031763</v>
+        <v>0.006509218667527478</v>
       </c>
       <c r="T13">
-        <v>0.02266442188031763</v>
+        <v>0.006509218667527478</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
         <v>27</v>
       </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.1676763333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.5030289999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.07292101558187326</v>
+      </c>
+      <c r="J14">
+        <v>0.07292101558187325</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G14">
-        <v>0.08878733333333333</v>
-      </c>
-      <c r="H14">
-        <v>0.266362</v>
-      </c>
-      <c r="I14">
-        <v>0.05017963821423168</v>
-      </c>
-      <c r="J14">
-        <v>0.05017963821423168</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
       <c r="M14">
-        <v>0.7342500000000002</v>
+        <v>0.04392366666666667</v>
       </c>
       <c r="N14">
-        <v>2.20275</v>
+        <v>0.131771</v>
       </c>
       <c r="O14">
-        <v>0.3688894597676453</v>
+        <v>0.01926361420786388</v>
       </c>
       <c r="P14">
-        <v>0.3688894597676453</v>
+        <v>0.01926361420786388</v>
       </c>
       <c r="Q14">
-        <v>0.06519209950000002</v>
+        <v>0.007364959373222221</v>
       </c>
       <c r="R14">
-        <v>0.5867288955000001</v>
+        <v>0.06628463435899999</v>
       </c>
       <c r="S14">
-        <v>0.01851073963218381</v>
+        <v>0.001404722311814838</v>
       </c>
       <c r="T14">
-        <v>0.01851073963218381</v>
+        <v>0.001404722311814837</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.08878733333333333</v>
+        <v>0.1676763333333333</v>
       </c>
       <c r="H15">
-        <v>0.266362</v>
+        <v>0.5030289999999999</v>
       </c>
       <c r="I15">
-        <v>0.05017963821423168</v>
+        <v>0.07292101558187326</v>
       </c>
       <c r="J15">
-        <v>0.05017963821423168</v>
+        <v>0.07292101558187325</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.203534</v>
+        <v>1.385719</v>
       </c>
       <c r="N15">
-        <v>0.6106020000000001</v>
+        <v>4.157157</v>
       </c>
       <c r="O15">
-        <v>0.1022561080072835</v>
+        <v>0.6077351515092152</v>
       </c>
       <c r="P15">
-        <v>0.1022561080072835</v>
+        <v>0.6077351515092153</v>
       </c>
       <c r="Q15">
-        <v>0.01807124110266667</v>
+        <v>0.2323522809503333</v>
       </c>
       <c r="R15">
-        <v>0.162641169924</v>
+        <v>2.091170528553</v>
       </c>
       <c r="S15">
-        <v>0.005131174505000884</v>
+        <v>0.04431666445285559</v>
       </c>
       <c r="T15">
-        <v>0.005131174505000886</v>
+        <v>0.04431666445285559</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.08878733333333333</v>
+        <v>0.1676763333333333</v>
       </c>
       <c r="H16">
-        <v>0.266362</v>
+        <v>0.5030289999999999</v>
       </c>
       <c r="I16">
-        <v>0.05017963821423168</v>
+        <v>0.07292101558187326</v>
       </c>
       <c r="J16">
-        <v>0.05017963821423168</v>
+        <v>0.07292101558187325</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1429,28 +1429,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.1715383333333333</v>
+        <v>0.08178166666666667</v>
       </c>
       <c r="N16">
-        <v>0.5146149999999999</v>
+        <v>0.245345</v>
       </c>
       <c r="O16">
-        <v>0.08618138660235011</v>
+        <v>0.03586700736754191</v>
       </c>
       <c r="P16">
-        <v>0.08618138660235013</v>
+        <v>0.03586700736754191</v>
       </c>
       <c r="Q16">
-        <v>0.01523043118111111</v>
+        <v>0.01371285000055555</v>
       </c>
       <c r="R16">
-        <v>0.13707388063</v>
+        <v>0.123415650005</v>
       </c>
       <c r="S16">
-        <v>0.004324550800506761</v>
+        <v>0.002615458603123687</v>
       </c>
       <c r="T16">
-        <v>0.004324550800506762</v>
+        <v>0.002615458603123687</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,75 +1458,75 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.08878733333333333</v>
+        <v>1.619589333333333</v>
       </c>
       <c r="H17">
-        <v>0.266362</v>
+        <v>4.858768</v>
       </c>
       <c r="I17">
-        <v>0.05017963821423168</v>
+        <v>0.7043456680165699</v>
       </c>
       <c r="J17">
-        <v>0.05017963821423168</v>
+        <v>0.7043456680165699</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.8811113333333335</v>
+        <v>0.5651780000000001</v>
       </c>
       <c r="N17">
-        <v>2.643334</v>
+        <v>1.695534</v>
       </c>
       <c r="O17">
-        <v>0.442673045622721</v>
+        <v>0.2478702662370043</v>
       </c>
       <c r="P17">
-        <v>0.4426730456227211</v>
+        <v>0.2478702662370043</v>
       </c>
       <c r="Q17">
-        <v>0.07823152565644445</v>
+        <v>0.9153562602346667</v>
       </c>
       <c r="R17">
-        <v>0.704083730908</v>
+        <v>8.238206342111999</v>
       </c>
       <c r="S17">
-        <v>0.02221317327654022</v>
+        <v>0.1745863482541478</v>
       </c>
       <c r="T17">
-        <v>0.02221317327654022</v>
+        <v>0.1745863482541478</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,60 +1535,60 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.013819666666667</v>
+        <v>1.619589333333333</v>
       </c>
       <c r="H18">
-        <v>3.041459000000001</v>
+        <v>4.858768</v>
       </c>
       <c r="I18">
-        <v>0.5729770472643203</v>
+        <v>0.7043456680165699</v>
       </c>
       <c r="J18">
-        <v>0.5729770472643204</v>
+        <v>0.7043456680165699</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>0.7342500000000002</v>
+        <v>0.203534</v>
       </c>
       <c r="N18">
-        <v>2.20275</v>
+        <v>0.610602</v>
       </c>
       <c r="O18">
-        <v>0.3688894597676453</v>
+        <v>0.08926396067837462</v>
       </c>
       <c r="P18">
-        <v>0.3688894597676453</v>
+        <v>0.08926396067837464</v>
       </c>
       <c r="Q18">
-        <v>0.7443970902500002</v>
+        <v>0.3296414953706666</v>
       </c>
       <c r="R18">
-        <v>6.699573812250002</v>
+        <v>2.966773458336</v>
       </c>
       <c r="S18">
-        <v>0.2113651934245957</v>
+        <v>0.0628726840138146</v>
       </c>
       <c r="T18">
-        <v>0.2113651934245957</v>
+        <v>0.06287268401381461</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.013819666666667</v>
+        <v>1.619589333333333</v>
       </c>
       <c r="H19">
-        <v>3.041459000000001</v>
+        <v>4.858768</v>
       </c>
       <c r="I19">
-        <v>0.5729770472643203</v>
+        <v>0.7043456680165699</v>
       </c>
       <c r="J19">
-        <v>0.5729770472643204</v>
+        <v>0.7043456680165699</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1615,39 +1615,39 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.203534</v>
+        <v>0.04392366666666667</v>
       </c>
       <c r="N19">
-        <v>0.6106020000000001</v>
+        <v>0.131771</v>
       </c>
       <c r="O19">
-        <v>0.1022561080072835</v>
+        <v>0.01926361420786388</v>
       </c>
       <c r="P19">
-        <v>0.1022561080072835</v>
+        <v>0.01926361420786388</v>
       </c>
       <c r="Q19">
-        <v>0.2063467720353334</v>
+        <v>0.07113830201422221</v>
       </c>
       <c r="R19">
-        <v>1.857120948318001</v>
+        <v>0.640244718128</v>
       </c>
       <c r="S19">
-        <v>0.05859040283075471</v>
+        <v>0.01356824321765138</v>
       </c>
       <c r="T19">
-        <v>0.05859040283075474</v>
+        <v>0.01356824321765138</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
@@ -1659,57 +1659,57 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.013819666666667</v>
+        <v>1.619589333333333</v>
       </c>
       <c r="H20">
-        <v>3.041459000000001</v>
+        <v>4.858768</v>
       </c>
       <c r="I20">
-        <v>0.5729770472643203</v>
+        <v>0.7043456680165699</v>
       </c>
       <c r="J20">
-        <v>0.5729770472643204</v>
+        <v>0.7043456680165699</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.1715383333333333</v>
+        <v>1.385719</v>
       </c>
       <c r="N20">
-        <v>0.5146149999999999</v>
+        <v>4.157157</v>
       </c>
       <c r="O20">
-        <v>0.08618138660235011</v>
+        <v>0.6077351515092152</v>
       </c>
       <c r="P20">
-        <v>0.08618138660235013</v>
+        <v>0.6077351515092153</v>
       </c>
       <c r="Q20">
-        <v>0.1739089359205556</v>
+        <v>2.244295711397333</v>
       </c>
       <c r="R20">
-        <v>1.565180423285</v>
+        <v>20.198661402576</v>
       </c>
       <c r="S20">
-        <v>0.04937995642455942</v>
+        <v>0.4280556212669095</v>
       </c>
       <c r="T20">
-        <v>0.04937995642455944</v>
+        <v>0.4280556212669096</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>24</v>
@@ -1721,57 +1721,57 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.013819666666667</v>
+        <v>1.619589333333333</v>
       </c>
       <c r="H21">
-        <v>3.041459000000001</v>
+        <v>4.858768</v>
       </c>
       <c r="I21">
-        <v>0.5729770472643203</v>
+        <v>0.7043456680165699</v>
       </c>
       <c r="J21">
-        <v>0.5729770472643204</v>
+        <v>0.7043456680165699</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.8811113333333335</v>
+        <v>0.08178166666666667</v>
       </c>
       <c r="N21">
-        <v>2.643334</v>
+        <v>0.245345</v>
       </c>
       <c r="O21">
-        <v>0.442673045622721</v>
+        <v>0.03586700736754191</v>
       </c>
       <c r="P21">
-        <v>0.4426730456227211</v>
+        <v>0.03586700736754191</v>
       </c>
       <c r="Q21">
-        <v>0.8932879982562225</v>
+        <v>0.1324527149955556</v>
       </c>
       <c r="R21">
-        <v>8.039591984306002</v>
+        <v>1.19207443496</v>
       </c>
       <c r="S21">
-        <v>0.2536414945844104</v>
+        <v>0.02526277126404654</v>
       </c>
       <c r="T21">
-        <v>0.2536414945844105</v>
+        <v>0.02526277126404654</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>20</v>
@@ -1783,16 +1783,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.2625306666666666</v>
+        <v>0.07288566666666667</v>
       </c>
       <c r="H22">
-        <v>0.787592</v>
+        <v>0.218657</v>
       </c>
       <c r="I22">
-        <v>0.1483735728836063</v>
+        <v>0.03169735841091798</v>
       </c>
       <c r="J22">
-        <v>0.1483735728836064</v>
+        <v>0.03169735841091798</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,39 +1801,39 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.7342500000000002</v>
+        <v>0.5651780000000001</v>
       </c>
       <c r="N22">
-        <v>2.20275</v>
+        <v>1.695534</v>
       </c>
       <c r="O22">
-        <v>0.3688894597676453</v>
+        <v>0.2478702662370043</v>
       </c>
       <c r="P22">
-        <v>0.3688894597676453</v>
+        <v>0.2478702662370043</v>
       </c>
       <c r="Q22">
-        <v>0.192763142</v>
+        <v>0.04119337531533334</v>
       </c>
       <c r="R22">
-        <v>1.734868278</v>
+        <v>0.370740377838</v>
       </c>
       <c r="S22">
-        <v>0.05473344714482889</v>
+        <v>0.007856832668323986</v>
       </c>
       <c r="T22">
-        <v>0.0547334471448289</v>
+        <v>0.007856832668323986</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
         <v>21</v>
@@ -1845,16 +1845,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.2625306666666666</v>
+        <v>0.07288566666666667</v>
       </c>
       <c r="H23">
-        <v>0.787592</v>
+        <v>0.218657</v>
       </c>
       <c r="I23">
-        <v>0.1483735728836063</v>
+        <v>0.03169735841091798</v>
       </c>
       <c r="J23">
-        <v>0.1483735728836064</v>
+        <v>0.03169735841091798</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -1866,39 +1866,39 @@
         <v>0.203534</v>
       </c>
       <c r="N23">
-        <v>0.6106020000000001</v>
+        <v>0.610602</v>
       </c>
       <c r="O23">
-        <v>0.1022561080072835</v>
+        <v>0.08926396067837462</v>
       </c>
       <c r="P23">
-        <v>0.1022561080072835</v>
+        <v>0.08926396067837464</v>
       </c>
       <c r="Q23">
-        <v>0.05343391670933333</v>
+        <v>0.01483471127933333</v>
       </c>
       <c r="R23">
-        <v>0.4809052503840001</v>
+        <v>0.133512401514</v>
       </c>
       <c r="S23">
-        <v>0.0151721040942126</v>
+        <v>0.00282943175480053</v>
       </c>
       <c r="T23">
-        <v>0.01517210409421261</v>
+        <v>0.002829431754800531</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
       </c>
       <c r="E24">
         <v>2</v>
@@ -1907,16 +1907,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.2625306666666666</v>
+        <v>0.07288566666666667</v>
       </c>
       <c r="H24">
-        <v>0.787592</v>
+        <v>0.218657</v>
       </c>
       <c r="I24">
-        <v>0.1483735728836063</v>
+        <v>0.03169735841091798</v>
       </c>
       <c r="J24">
-        <v>0.1483735728836064</v>
+        <v>0.03169735841091798</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -1925,42 +1925,42 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>0.1715383333333333</v>
+        <v>0.04392366666666667</v>
       </c>
       <c r="N24">
-        <v>0.5146149999999999</v>
+        <v>0.131771</v>
       </c>
       <c r="O24">
-        <v>0.08618138660235011</v>
+        <v>0.01926361420786388</v>
       </c>
       <c r="P24">
-        <v>0.08618138660235013</v>
+        <v>0.01926361420786388</v>
       </c>
       <c r="Q24">
-        <v>0.04503407300888888</v>
+        <v>0.003201405727444445</v>
       </c>
       <c r="R24">
-        <v>0.4053066570799999</v>
+        <v>0.028812651547</v>
       </c>
       <c r="S24">
-        <v>0.01278704024625405</v>
+        <v>0.0006106056838363134</v>
       </c>
       <c r="T24">
-        <v>0.01278704024625405</v>
+        <v>0.0006106056838363134</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -1969,46 +1969,108 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.2625306666666666</v>
+        <v>0.07288566666666667</v>
       </c>
       <c r="H25">
-        <v>0.787592</v>
+        <v>0.218657</v>
       </c>
       <c r="I25">
-        <v>0.1483735728836063</v>
+        <v>0.03169735841091798</v>
       </c>
       <c r="J25">
-        <v>0.1483735728836064</v>
+        <v>0.03169735841091798</v>
       </c>
       <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.385719</v>
+      </c>
+      <c r="N25">
+        <v>4.157157</v>
+      </c>
+      <c r="O25">
+        <v>0.6077351515092152</v>
+      </c>
+      <c r="P25">
+        <v>0.6077351515092153</v>
+      </c>
+      <c r="Q25">
+        <v>0.1009990531276667</v>
+      </c>
+      <c r="R25">
+        <v>0.9089914781489999</v>
+      </c>
+      <c r="S25">
+        <v>0.01926359891630114</v>
+      </c>
+      <c r="T25">
+        <v>0.01926359891630114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
         <v>2</v>
       </c>
-      <c r="L25">
+      <c r="F26">
         <v>0.6666666666666666</v>
       </c>
-      <c r="M25">
-        <v>0.8811113333333335</v>
-      </c>
-      <c r="N25">
-        <v>2.643334</v>
-      </c>
-      <c r="O25">
-        <v>0.442673045622721</v>
-      </c>
-      <c r="P25">
-        <v>0.4426730456227211</v>
-      </c>
-      <c r="Q25">
-        <v>0.2313187457475556</v>
-      </c>
-      <c r="R25">
-        <v>2.081868711728</v>
-      </c>
-      <c r="S25">
-        <v>0.06568098139831079</v>
-      </c>
-      <c r="T25">
-        <v>0.06568098139831081</v>
+      <c r="G26">
+        <v>0.07288566666666667</v>
+      </c>
+      <c r="H26">
+        <v>0.218657</v>
+      </c>
+      <c r="I26">
+        <v>0.03169735841091798</v>
+      </c>
+      <c r="J26">
+        <v>0.03169735841091798</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M26">
+        <v>0.08178166666666667</v>
+      </c>
+      <c r="N26">
+        <v>0.245345</v>
+      </c>
+      <c r="O26">
+        <v>0.03586700736754191</v>
+      </c>
+      <c r="P26">
+        <v>0.03586700736754191</v>
+      </c>
+      <c r="Q26">
+        <v>0.005960711296111112</v>
+      </c>
+      <c r="R26">
+        <v>0.053646401665</v>
+      </c>
+      <c r="S26">
+        <v>0.001136889387656012</v>
+      </c>
+      <c r="T26">
+        <v>0.001136889387656012</v>
       </c>
     </row>
   </sheetData>
